--- a/target/test-classes/testData/GasMileageTestData.xlsx
+++ b/target/test-classes/testData/GasMileageTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\HTML introduction\chicago10cucumberjunit\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Execute</t>
   </si>
@@ -61,12 +61,37 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>13.33</t>
+  </si>
+  <si>
+    <t>PASS!</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:04:04.565</t>
+  </si>
+  <si>
+    <t>16.67</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:04:07.198</t>
+  </si>
+  <si>
+    <t>Skip Requested!</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>2019-01-24T21:04:08.980</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,9 +446,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.453125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.36328125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -465,8 +490,18 @@
       <c r="D2">
         <v>75</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -481,8 +516,18 @@
       <c r="D3">
         <v>60</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -499,6 +544,9 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -513,8 +561,18 @@
       <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
